--- a/biology/Neurosciences/Nerf_fémoral/Nerf_fémoral.xlsx
+++ b/biology/Neurosciences/Nerf_fémoral/Nerf_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_f%C3%A9moral</t>
+          <t>Nerf_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fémoral (ou nerf crural ou nerf crural antérieur) est un nerf mixte du membre inférieur et une branche terminale de la partie postérieure du plexus lombal composé des racines L2, L3 et L4.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_f%C3%A9moral</t>
+          <t>Nerf_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fémoral nait de la fusion des divisions postérieures des rameaux antérieurs des deuxième, troisième et quatrième nerfs lombaires (L2, L3 et L4).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_f%C3%A9moral</t>
+          <t>Nerf_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf fémoral  apparait sur le bord externe du muscle grand psoas. Le nerf pénètre dans le triangle de Scarpa en passant dans la lacune musculaire rétro-inguinale[1] sous le ligament inguinal, juste en dehors de l'artère fémorale . Dans la cuisse, le nerf se situe dans un sillon entre le muscle iliaque et le muscle grand psoas. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf fémoral  apparait sur le bord externe du muscle grand psoas. Le nerf pénètre dans le triangle de Scarpa en passant dans la lacune musculaire rétro-inguinale sous le ligament inguinal, juste en dehors de l'artère fémorale . Dans la cuisse, le nerf se situe dans un sillon entre le muscle iliaque et le muscle grand psoas. 
 Après un court cours d'environ 4 cm dans la cuisse, le nerf se divise en quatre branches : 
 deux rameaux cutanés antérieurs : les nerfs musculo-cutané externe et interne ;
 deux rameaux musculaires : le nerf du quadriceps et le nerf saphène.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_f%C3%A9moral</t>
+          <t>Nerf_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avant sa division, le nerf fémoral émet :
 des rameaux musculaires pour les muscles iliaque, grand psoas près de son origine et pour le muscle pectiné au-dessus du ligament inguinal;
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nerf_f%C3%A9moral</t>
+          <t>Nerf_fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les signaux du nerf fémoral et de ses branches peuvent être bloqués pour interrompre la transmission du signal de douleur de la zone d'innervation, en effectuant un bloc nerveux régional. Le bloc du nerf fémoral est largement utilisé dans les interventions chirurgicales des membres inférieurs[2]. Les procédés les plus utilisés sur le nerf fémoral sont : le bloc fémoral, le bloc ilofascial et le bloc « 3 en 1 »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signaux du nerf fémoral et de ses branches peuvent être bloqués pour interrompre la transmission du signal de douleur de la zone d'innervation, en effectuant un bloc nerveux régional. Le bloc du nerf fémoral est largement utilisé dans les interventions chirurgicales des membres inférieurs. Les procédés les plus utilisés sur le nerf fémoral sont : le bloc fémoral, le bloc ilofascial et le bloc « 3 en 1 ».
 </t>
         </is>
       </c>
